--- a/data/trans_bre/P21D_4_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Provincia-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.308540846102958</v>
+        <v>1.80201193732082</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.132514402682251</v>
+        <v>-1.113216854808769</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.448474115600501</v>
+        <v>1.469793798094568</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.962401702768205</v>
+        <v>2.962401702768204</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4.179822063023524</v>
+        <v>4.179822063023522</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1981943571440449</v>
+        <v>0.3870436151681743</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.8862081621958</v>
+        <v>6.304924386926891</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.670262673918535</v>
+        <v>-3.761787903782109</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4540074361631852</v>
+        <v>0.4693831319598666</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.143328542684587</v>
+        <v>4.305025911818153</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3704714868642255</v>
+        <v>0.3693809949449838</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.033528532887778</v>
+        <v>2.999844395294509</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.400654542233281</v>
+        <v>1.174010814927048</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2313921481035412</v>
+        <v>0.2280318001647114</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.2758383631366215</v>
+        <v>0.09841212129459884</v>
       </c>
     </row>
     <row r="30">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.102027450482243</v>
+        <v>1.106975108544344</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16.70289805375123</v>
+        <v>12.40555339784844</v>
       </c>
     </row>
     <row r="31">
